--- a/src/analysis_examples/circadb/results_jtk/cosinor_10478754_arfgef2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10478754_arfgef2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23622014508067718, 0.33954712539963045]</t>
+          <t>[0.23716167449590897, 0.33860559598439866]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.382634007285333e-10</v>
+        <v>9.870348982587984e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.382634007285333e-10</v>
+        <v>9.870348982587984e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.2893158399702314</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3687587564157863, 0.4279607822297918]</t>
+          <t>[0.36874542382930336, 0.42797411481627473]</t>
         </is>
       </c>
       <c r="U2" t="n">
